--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3573</v>
+        <v>16.23539999999999</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.3864</v>
+        <v>-11.3212</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.9304</v>
+        <v>16.9894</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.465</v>
+        <v>16.37359999999999</v>
       </c>
     </row>
     <row r="27">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.86149999999999</v>
+        <v>16.8349</v>
       </c>
     </row>
     <row r="32">
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.52690000000001</v>
+        <v>-13.60450000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.39720000000001</v>
+        <v>16.46710000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.01220000000001</v>
+        <v>-13.06680000000002</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.65310000000001</v>
+        <v>16.69290000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.8981</v>
+        <v>-13.08930000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.7231</v>
+        <v>16.5929</v>
       </c>
     </row>
     <row r="46">
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.49029999999999</v>
+        <v>-14.22819999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.1019</v>
+        <v>-12.7228</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.6094</v>
+        <v>-13.43839999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7673</v>
+        <v>16.8133</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.9074</v>
+        <v>-10.81470000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.04369999999999</v>
+        <v>-12.42429999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.4213</v>
+        <v>-11.5643</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.4297</v>
+        <v>-10.5483</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.4736</v>
+        <v>-13.4238</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.54160000000001</v>
+        <v>16.4876</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.78189999999999</v>
+        <v>16.70829999999999</v>
       </c>
     </row>
   </sheetData>
